--- a/SUMMARY SHEETS/annualavgs.xlsx
+++ b/SUMMARY SHEETS/annualavgs.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelleysinning/Library/CloudStorage/GoogleDrive-ksinning@vt.edu/My Drive/Data/saltyC_VirginiaTech/SUMMARY SHEETS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29BA2D2-5E8A-FC44-8C2E-59D92432576D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE44720-35EB-1440-8CF8-DAD26F13A495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28040" windowHeight="15440" activeTab="1" xr2:uid="{682FA5E6-DD5F-CB44-B3FA-8599E7078805}"/>
+    <workbookView xWindow="9040" yWindow="2560" windowWidth="28040" windowHeight="15440" activeTab="1" xr2:uid="{682FA5E6-DD5F-CB44-B3FA-8599E7078805}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
     <sheet name="transposed" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="224">
   <si>
     <t>CRO</t>
   </si>
@@ -556,6 +556,159 @@
   </si>
   <si>
     <t>0.4 ± 0.15</t>
+  </si>
+  <si>
+    <t>NH3</t>
+  </si>
+  <si>
+    <t>NO3.NO2</t>
+  </si>
+  <si>
+    <t>oPO4</t>
+  </si>
+  <si>
+    <t>0.03 ± NA</t>
+  </si>
+  <si>
+    <t>0.23 ± 0.09</t>
+  </si>
+  <si>
+    <t>0 ± 0</t>
+  </si>
+  <si>
+    <t>0.04 ± NA</t>
+  </si>
+  <si>
+    <t>0.3 ± 0.17</t>
+  </si>
+  <si>
+    <t>0.02 ± 0</t>
+  </si>
+  <si>
+    <t>0.39 ± 0.15</t>
+  </si>
+  <si>
+    <t>0.51 ± 0.17</t>
+  </si>
+  <si>
+    <t>0.02 ± NA</t>
+  </si>
+  <si>
+    <t>0.43 ± 0.11</t>
+  </si>
+  <si>
+    <t>0.08 ± NA</t>
+  </si>
+  <si>
+    <t>0.14 ± 0.01</t>
+  </si>
+  <si>
+    <t>0.25 ± 0.06</t>
+  </si>
+  <si>
+    <t>1.44 ± 0.26</t>
+  </si>
+  <si>
+    <t>NaN ± NA</t>
+  </si>
+  <si>
+    <t>0.26 ± 0.02</t>
+  </si>
+  <si>
+    <t>NH3 (mg/L)</t>
+  </si>
+  <si>
+    <t>NO3.NO2 (mg/L)</t>
+  </si>
+  <si>
+    <t>oPO4 (mg/L)</t>
+  </si>
+  <si>
+    <t>CaCO3 (mg/L)</t>
+  </si>
+  <si>
+    <t>23.76 ± 3.05</t>
+  </si>
+  <si>
+    <t>15.8 ± 2.24</t>
+  </si>
+  <si>
+    <t>92.5 ± 10.89</t>
+  </si>
+  <si>
+    <t>19.07 ± 6.46</t>
+  </si>
+  <si>
+    <t>43.37 ± 3.86</t>
+  </si>
+  <si>
+    <t>55.07 ± 5.63</t>
+  </si>
+  <si>
+    <t>119.66 ± 24.59</t>
+  </si>
+  <si>
+    <t>195.79 ± 5.18</t>
+  </si>
+  <si>
+    <t>84.87 ± 3.62</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>1818 ± 118.7</t>
+  </si>
+  <si>
+    <t>555.67 ± 50.45</t>
+  </si>
+  <si>
+    <t>2323.67 ± 183.81</t>
+  </si>
+  <si>
+    <t>6057 ± 617.98</t>
+  </si>
+  <si>
+    <t>3908 ± 507.5</t>
+  </si>
+  <si>
+    <t>40713.67 ± 5483.09</t>
+  </si>
+  <si>
+    <t>1502.33 ± 129.62</t>
+  </si>
+  <si>
+    <t>5463.33 ± 1300.72</t>
+  </si>
+  <si>
+    <t>33267.67 ± 5772.69</t>
+  </si>
+  <si>
+    <t>12027 ± 1116.18</t>
+  </si>
+  <si>
+    <t>5562.33 ± 804.14</t>
+  </si>
+  <si>
+    <t>138547 ± 17924.36</t>
+  </si>
+  <si>
+    <t>120184 ± 25306.73</t>
+  </si>
+  <si>
+    <t>6057.67 ± 435.86</t>
+  </si>
+  <si>
+    <t>139922.67 ± 12359.43</t>
+  </si>
+  <si>
+    <t>3493.67 ± 247.09</t>
+  </si>
+  <si>
+    <t>46173 ± 7574.92</t>
   </si>
 </sst>
 </file>
@@ -611,7 +764,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -639,11 +792,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -654,7 +816,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,12 +1160,12 @@
   <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="R1" sqref="R1:T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -1049,8 +1217,17 @@
       <c r="Q1" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1102,8 +1279,17 @@
       <c r="Q2" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1155,8 +1341,17 @@
       <c r="Q3" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1208,8 +1403,17 @@
       <c r="Q4" s="5" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1261,8 +1465,17 @@
       <c r="Q5" s="5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1314,8 +1527,17 @@
       <c r="Q6" s="5" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1367,8 +1589,17 @@
       <c r="Q7" s="5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1420,8 +1651,17 @@
       <c r="Q8" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1473,8 +1713,17 @@
       <c r="Q9" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1526,27 +1775,36 @@
       <c r="Q10" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="J14" s="10" t="s">
+      <c r="R10" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1563,17 +1821,17 @@
     <row r="18" spans="9:30" x14ac:dyDescent="0.2">
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="9:30" x14ac:dyDescent="0.2">
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
     </row>
     <row r="20" spans="9:30" x14ac:dyDescent="0.2">
       <c r="I20" s="2"/>
@@ -1591,13 +1849,13 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Q21" s="10" t="s">
+      <c r="Q21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="R21" s="10" t="s">
+      <c r="R21" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1605,37 +1863,37 @@
       <c r="I22" s="2"/>
       <c r="J22" s="3"/>
       <c r="K22" s="2"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
       <c r="O22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
     </row>
     <row r="23" spans="9:30" x14ac:dyDescent="0.2">
       <c r="I23" s="2"/>
       <c r="J23" s="3"/>
       <c r="K23" s="2"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
     </row>
     <row r="24" spans="9:30" x14ac:dyDescent="0.2">
       <c r="I24" s="2"/>
@@ -1942,10 +2200,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA64FC0-0BBD-7B42-9942-922F12CE2A97}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2465,7 +2723,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>42</v>
       </c>
@@ -2496,6 +2754,202 @@
       <c r="J17" s="7" t="s">
         <v>167</v>
       </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
